--- a/data-raw/form.xlsx
+++ b/data-raw/form.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\R-projects\LAPOP\LAPOP-SMA-unhcr\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5C84AC-1CB4-41C4-9C16-09E814D058EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC2431E-386C-4DDA-A230-E7DEEB172D67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId9"/>
+    <pivotCache cacheId="0" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10013" uniqueCount="1271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9959" uniqueCount="1273">
   <si>
     <t>type</t>
   </si>
@@ -3857,6 +3857,12 @@
   </si>
   <si>
     <t>Potential Protection Risk</t>
+  </si>
+  <si>
+    <t>1-Migration</t>
+  </si>
+  <si>
+    <t>2-Potential Protection Risk</t>
   </si>
 </sst>
 </file>
@@ -14749,7 +14755,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{27E4C418-F161-4C3D-961C-0B4E8AD2D77E}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{27E4C418-F161-4C3D-961C-0B4E8AD2D77E}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A58" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
@@ -15412,9 +15418,9 @@
   <dimension ref="A1:X135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="F121" sqref="F121"/>
+      <selection pane="bottomLeft" activeCell="C138" sqref="C138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15423,7 +15429,7 @@
     <col min="2" max="2" width="30.7109375" customWidth="1"/>
     <col min="3" max="3" width="52.28515625" customWidth="1"/>
     <col min="4" max="5" width="6.5703125" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" customWidth="1"/>
     <col min="7" max="7" width="6.5703125" customWidth="1"/>
     <col min="8" max="8" width="19.140625" customWidth="1"/>
     <col min="9" max="9" width="12.5703125" customWidth="1"/>
@@ -15672,12 +15678,6 @@
       <c r="E4" t="s">
         <v>26</v>
       </c>
-      <c r="F4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" t="s">
-        <v>28</v>
-      </c>
       <c r="H4" t="s">
         <v>25</v>
       </c>
@@ -15968,12 +15968,6 @@
       <c r="E8" t="s">
         <v>26</v>
       </c>
-      <c r="F8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" t="s">
-        <v>28</v>
-      </c>
       <c r="H8" t="s">
         <v>25</v>
       </c>
@@ -16042,12 +16036,6 @@
       <c r="E9" t="s">
         <v>26</v>
       </c>
-      <c r="F9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" t="s">
-        <v>28</v>
-      </c>
       <c r="H9" t="s">
         <v>25</v>
       </c>
@@ -16265,7 +16253,7 @@
         <v>26</v>
       </c>
       <c r="F12" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="G12" t="s">
         <v>28</v>
@@ -20241,7 +20229,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>225</v>
       </c>
@@ -20258,7 +20246,7 @@
         <v>26</v>
       </c>
       <c r="F66" t="s">
-        <v>228</v>
+        <v>1271</v>
       </c>
       <c r="G66" t="s">
         <v>28</v>
@@ -20315,7 +20303,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>229</v>
       </c>
@@ -20332,7 +20320,7 @@
         <v>26</v>
       </c>
       <c r="F67" t="s">
-        <v>228</v>
+        <v>1271</v>
       </c>
       <c r="G67" t="s">
         <v>28</v>
@@ -20833,7 +20821,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>252</v>
       </c>
@@ -21203,7 +21191,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>267</v>
       </c>
@@ -21573,7 +21561,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>282</v>
       </c>
@@ -21943,7 +21931,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>298</v>
       </c>
@@ -24311,7 +24299,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>396</v>
       </c>
@@ -24385,7 +24373,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>400</v>
       </c>
@@ -25339,10 +25327,10 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:V135" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="8">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Potential Protection Risk"/>
+      </filters>
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
